--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4DD30-3A7C-49A4-9085-322EE59C7C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F258F-4902-44A9-9310-DFEB9AC8C7B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Mon</t>
+  </si>
+  <si>
+    <t>Wed</t>
   </si>
 </sst>
 </file>
@@ -373,13 +376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -457,6 +463,84 @@
       </c>
       <c r="H3">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F258F-4902-44A9-9310-DFEB9AC8C7B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF391D3-C4B8-4514-911D-D50638C3356B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,6 +543,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF391D3-C4B8-4514-911D-D50638C3356B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F5F1F-FFE6-4351-A693-B939CE52A32E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,6 +595,136 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F5F1F-FFE6-4351-A693-B939CE52A32E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045C5A5-C5DB-4B51-824E-B3E752C3AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,6 +725,32 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045C5A5-C5DB-4B51-824E-B3E752C3AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97ECAB-33C4-4237-B792-ABC7BDCC8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,6 +751,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97ECAB-33C4-4237-B792-ABC7BDCC8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59462AE-50D4-4B49-8EAF-A249F24108ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,6 +777,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>63</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59462AE-50D4-4B49-8EAF-A249F24108ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8429A0E-6070-49E7-A17A-760C97A46A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,6 +803,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8429A0E-6070-49E7-A17A-760C97A46A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405CB29-B51D-4944-A428-80C77780B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,6 +829,32 @@
         <v>24</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405CB29-B51D-4944-A428-80C77780B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79678E65-53F5-4488-BCE7-28D47EBE031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -855,6 +855,344 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <v>63</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>62</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>47</v>
+      </c>
+      <c r="G27">
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <v>61</v>
+      </c>
+      <c r="G28">
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <v>67</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79678E65-53F5-4488-BCE7-28D47EBE031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43768267-FA8A-4B82-9349-63D6DB26555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,6 +1193,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43768267-FA8A-4B82-9349-63D6DB26555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3440BE-1EED-4FB6-A076-3B65220DC436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,18 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44564</v>
       </c>
@@ -465,7 +465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44566</v>
       </c>
@@ -491,7 +491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44569</v>
       </c>
@@ -517,7 +517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44571</v>
       </c>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44573</v>
       </c>
@@ -569,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44576</v>
       </c>
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44578</v>
       </c>
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44580</v>
       </c>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44583</v>
       </c>
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44585</v>
       </c>
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44587</v>
       </c>
@@ -725,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44590</v>
       </c>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44592</v>
       </c>
@@ -777,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44594</v>
       </c>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44597</v>
       </c>
@@ -829,7 +829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44599</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44601</v>
       </c>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44604</v>
       </c>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44606</v>
       </c>
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44608</v>
       </c>
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44611</v>
       </c>
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44613</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44615</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44618</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44620</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44622</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44625</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44627</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44629</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44632</v>
       </c>
@@ -1217,6 +1217,32 @@
       </c>
       <c r="H32">
         <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>44</v>
+      </c>
+      <c r="G33">
+        <v>49</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3440BE-1EED-4FB6-A076-3B65220DC436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1CB128-23F5-485C-AC0B-E0E30921ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,6 +1245,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>58</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1CB128-23F5-485C-AC0B-E0E30921ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C29E84-AC38-4B9D-BDCC-193E8A944DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,6 +1271,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>48</v>
+      </c>
+      <c r="G35">
+        <v>52</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C29E84-AC38-4B9D-BDCC-193E8A944DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A9A26-61ED-47A2-A7B4-9BC95C531BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,6 +1297,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>63</v>
+      </c>
+      <c r="G36">
+        <v>65</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A9A26-61ED-47A2-A7B4-9BC95C531BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F55F18-389E-4952-8FB9-27DF03B9C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1323,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>48</v>
+      </c>
+      <c r="H37">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cifsbos03\a623868\Data\GitHub\Powerball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F55F18-389E-4952-8FB9-27DF03B9C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90367D-577C-4B79-BA50-44FD187FC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1349,32 @@
         <v>24</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+      <c r="G38">
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
